--- a/media/method_details.xlsx
+++ b/media/method_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16DED0B-E1E2-4423-8451-25915B302A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64554E6-B242-41BB-B28F-194E39570C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,22 +48,13 @@
     <t>inference</t>
   </si>
   <si>
-    <t>Floating inference with the Mobilint IR. This can be used to check the built IR returns the same output as the model.</t>
-  </si>
-  <si>
     <t>inference_int8</t>
   </si>
   <si>
-    <t>Integer inference with the compiled and quantized model. The model must be compiled before executing this function.</t>
-  </si>
-  <si>
     <t>inference_int8_input_dict</t>
   </si>
   <si>
     <t>cal_ops</t>
-  </si>
-  <si>
-    <t>Return the number of add/multiplication operations in the build Mobilint IR. This can be reduced in later optimization steps.</t>
   </si>
   <si>
     <t>to</t>
@@ -73,8 +64,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Same as "inference_int8", but got dictionary input which has a form of {node name: node input} instead.
+    <t>Same as "inference_int8", but get a dictionary input which has a form of {node name: node input} instead.
 This can be used for models with multiple inputs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floating inference with the Mobilint IR.
+This can be used to check the built IR returns the same output as the model.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return the number of add/multiplication operations in the build Mobilint IR.
+This can be reduced in later optimization steps.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer inference with the compiled and quantized model.
+The model must be compiled before executing this function.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +449,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -476,44 +482,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
